--- a/target/classes/files/outputAjtData.xlsx
+++ b/target/classes/files/outputAjtData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -98,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -417,6 +417,40 @@
         <v>45155.0</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>45165.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>45166.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
